--- a/src/test/java/top/sharehome/springbootinittemplate/document/excel/file/test_bak.xlsx
+++ b/src/test/java/top/sharehome/springbootinittemplate/document/excel/file/test_bak.xlsx
@@ -102,10 +102,10 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.0" customWidth="true"/>
-    <col min="2" max="2" width="18.0" customWidth="true"/>
+    <col min="2" max="2" width="16.0" customWidth="true"/>
     <col min="3" max="3" width="26.0" customWidth="true"/>
     <col min="4" max="4" width="12.0" customWidth="true"/>
-    <col min="5" max="5" width="41.0" customWidth="true"/>
+    <col min="5" max="5" width="37.0" customWidth="true"/>
     <col min="6" max="6" width="12.0" customWidth="true"/>
     <col min="7" max="7" width="19.0" customWidth="true"/>
     <col min="8" max="8" width="19.0" customWidth="true"/>
@@ -156,69 +156,69 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>7753918920178350080</t>
+          <t>3802995172797347840</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>𦿓碿늅氒㜀</t>
+          <t>𨘉쉪𡞔ᅦ</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>𝝋嬈倨ჶ𭦊𔔏ȁ</t>
+          <t>𤪩𘑂𪰙𰽘𘇪</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>𪫻ꁷ</t>
+          <t>䦻𬦑</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>𮮔𧫽🝜𩴤𤽈𡕽໘𠈯</t>
+          <t>笭뤓털𗨤윞럮탩𨱫🟌弻𡓸</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>7208671836918643712</t>
+          <t>717927386765341696</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>𡨀𝨬உ猅</t>
+          <t>𨢏㯗晛毳Ძ</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>𦍕𗵾䷥ꙻ𦭬唌ᵔ</t>
+          <t>𢔒𥾇𘍨𩦲𠜣</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>눗嶮敋</t>
+          <t>娍𫌡</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>뵾𦆳𮖶𥙐𥦪𗭟삦𗷆굦</t>
+          <t>诖⅘𑈟⏼𡓕𡨡䱷𓅠ㆋ諠뛌</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
@@ -228,333 +228,333 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>1606392889203695616</t>
+          <t>2607903459204411392</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>憛𗭡𣅩Ⴝ</t>
+          <t>띑㌘ꧼ𑊊ץ</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>𤦕쇕𫫹擳𑈯𧁐</t>
+          <t>鰗𘘓𧛢쥬ꨱ呹𑇀</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>𠂞봖</t>
+          <t>𮨪Ի</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>★𧯸訹𣈂𨜘ዿ砦腕𡳹🢭</t>
+          <t>𤽢גּ𤰅𪬋㫈𐰡𬌦𰽢࿚</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>3955682063153409024</t>
+          <t>432348743346808832</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>𥚘𤛁쒔졺</t>
+          <t>䯹䋦𤏿鯥젎</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>⩟𮬁𩍽𦖩𫎭㙾</t>
+          <t>⸠弢𣑔𤁰𫨁ꇺ</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>𥬭☘</t>
+          <t>쎖豯㲱</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>瘝𢵪𥗵𠐟䠖𤷔𫤽🤷죌</t>
+          <t>𘗔軮𩿆𩴦Ȉ隨摉𤂕 𭣆</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>3999763123921609728</t>
+          <t>5108337612625128448</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>𩅚𡠆攛랃</t>
+          <t>𩞇𠋪𭓗</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>𠞡讔𐪐𒉂̲𗱺</t>
+          <t>鹎𪉽쁂𤼲𗐹㴣㣠</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>𫭶疶</t>
+          <t>𰃂䩖</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>𝜰𡜨𗎕䨺𗮋쑭銇똲🅪鱄</t>
+          <t>쿤𫇅𩙥𭔰𥨧Ӎ𬌤𢭞뭸</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>7362516322663947264</t>
+          <t>2043964578059292672</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>揢𣒡𢅮⢖</t>
+          <t>𡧁咗𧄬衟</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Ҕ礌𩝚ꥠ𥚦杮𮌁</t>
+          <t>쭯𡱟𫡱𤣬𨷣䆧</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>𛋢⢌</t>
+          <t>𤄩壽</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>🚝뭮菓𫄸𮈄𨱬Ꮉᯥ𥙼ᇽ</t>
+          <t>𢦚ပﲤ刻𢾩𩽂🞈𗾑䳫</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>7987465050736678912</t>
+          <t>3344947682778484736</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>䉔𩘩𨍂㵋</t>
+          <t>𑀁𤊑𡺋</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>𒈗ఁ𧉅𪂴銿ꞙ黐</t>
+          <t>𑖾𬗸𭼄𮑴𗄞</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>𥋁㿅</t>
+          <t>𮬸밸</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>ゞ蟥𢴹Ꜭ𐊗𢃂𭣸瀡𬜌狔</t>
+          <t>𑈓𰐣𐌐𒑨🅄嶖𧵣𫛓</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>1686365665090769920</t>
+          <t>1519304852714059776</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>ﺅ翘卥🆕뢻</t>
+          <t>𑁯㈅𭢘諮</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>𩆿𫈀罸౭𞢜꠳ꓦ</t>
+          <t>𦅏𧵞𪆘🎯ڈ鳲</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>铭𩤔</t>
+          <t>𒀷顓</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>થ𘌧𗑹䨧𡓪掛𠏌𣋧딣攰</t>
+          <t>𰁔ꊘ𨙖𩉤𧻡𧴡𧨝㝊홄</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>3009207533007884288</t>
+          <t>3214897778826025984</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>믿Ꮄ𗗈ꂫ༅</t>
+          <t>饎𨶘뗝𠅎</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>𣾮🝧𧕛𩂕㺬</t>
+          <t>𬗦𭽧减𧶉𮁝偛</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>𬦫ǳ</t>
+          <t>𧦈雒</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>𥎃䠉𭜡柬𥃠𝕡䜗𮇞ⳣ읓</t>
+          <t>𦩭戀𭬅𱂒鹾懮竡慎Ი𐲢舏</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>5092730542108737536</t>
+          <t>890301088125473792</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>𢐞𣳑𮨃</t>
+          <t>𣗒𣪯𑆀</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>쁁𡖚𫍑𡿬𡱨︽</t>
+          <t>𧱈꺤𰬟𧧩𗖪Ꞁ</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>𩴵萎</t>
+          <t>𗘵듷</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>𝅨ؖ𭢆Ĥꂝ𨏄𪤸𢗚𥙝</t>
+          <t>躵𡱃吂妽𑈸𢌋祉𰘏𭊾䌌</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -564,81 +564,81 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>4511958801165529088</t>
+          <t>9076418076957814784</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>𗃻𘢓𗿔</t>
+          <t>⮮鰠𰵋𭫡</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>᥇㐼㼨𗛯𥪮蒉𡁋</t>
+          <t>𬓑🂒𰺇ར蕙䈠貍</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>𗅤൬</t>
+          <t>𫬽寏</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>𫬿𡹹肖𬼙덾줯廝𩛿厂𧬻</t>
+          <t>ᡘ袂𘅎듡ꨰ鼟⥿㰥𗋎𐐼𧒜</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>5070224847880820736</t>
+          <t>6584271435714894848</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>𫊋沱𫺢甆</t>
+          <t>𫙺㲠𥱧鶢</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>𗦷Ӕ𠉃只𐍯▍餷</t>
+          <t>𨔢𢾇𑵁ﭴ𥵾劆</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>𨮖쏽</t>
+          <t>휂𗢓</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>𘥏䛎𨄲𢈡𩉩𪩖鱓𬎴ꃗ</t>
+          <t>𡶣𨭍팸𦞠礻킊馶嬺𩭾렻뮤</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -648,39 +648,39 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>2501861408357104640</t>
+          <t>5660197224817393664</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>넀𥢵𠈆뿕</t>
+          <t>꽴𧄅蜾瑨偤</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>怙𬃢𬆾𦑂퇍༌穅</t>
+          <t>삧𬲽𭞴ນ퉯啄❖놣</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>󠁴멽</t>
+          <t>𨝉梎</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>𨾭𨀛𗒤ļ𪌭錛𐧶𦾤䗩</t>
+          <t>𗩈党𢮥𦢂𓉲ﭿ𠄧𘡆撯</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -690,39 +690,39 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>8286609099602189312</t>
+          <t>3382458505174664192</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>𩦰硜𣤃㼁</t>
+          <t>龾톂䢎𦵲돈</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>阞竏𦀈𭝲𠀙𤗞</t>
+          <t>ᵡ𗩽𭮼𩬇✌𫕠</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>𡏚ʳ</t>
+          <t>𦂐㪼</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>鹘䷉䮫𓈽𪟙🢡𐜐𣿢𣊻</t>
+          <t>𪌛𩓫𥾞Γ𧨐崔ᛮ㿑𗣌ꛘ</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -732,123 +732,123 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>7466018226038200320</t>
+          <t>3743809043172822016</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>𣺺🗆䮡햦</t>
+          <t>𦶓𗮞𦸴</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>蒹ﲀŦ篼篯磊𩯊𣱵</t>
+          <t>𫏣𣢲𧆈𬚌떨淌</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>朕⥇吽</t>
+          <t>𣭐ퟍ</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>𣃞𣏘𨎓꓃𝝸𧔦牼❎𡄃</t>
+          <t>𫈋𗹨꿋㣬撛𗁅👆𰛯䞐粝</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>1101147368834632704</t>
+          <t>987021889634818048</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>㱈嬿、𝅳䓥</t>
+          <t>𦔂𫨗𨥧</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>𪼠󠁇廎≝𮁧𡜽</t>
+          <t>꒙㞗旇𘮙𥡉𡇻⻂</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>𫀞ઙ</t>
+          <t>訜㼽狖</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>𘥯볙𢇵먳醁𠄓솠𘂎ᅶ稯ﳗ</t>
+          <t>萌寊甦𪠋뤢𫀉𨆗㎄𫪚钾⌕</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>683777219958479872</t>
+          <t>8583854049097397248</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>𮁝𭌪ﵠុ</t>
+          <t>𥀪仪𡻔膯</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>猠𗹶𘠗簴妣됣ᬏ惩</t>
+          <t>랸𡡽𪱱詉𦅻Ṹ鉅</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>䄄馻큵</t>
+          <t>𡩔醞</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>𫎍𧛴כּ鉎㰺𝓴𭈲𬖅𭿼</t>
+          <t>ﰼ㔈ڴ𦸮𥒄𬕨𤽻𦓡𥈤</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -858,39 +858,39 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>3662384565114703872</t>
+          <t>5177273656570667008</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>𖬅𨜿䳎</t>
+          <t>𢴡↯邥쁟ꗰ</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>𭙡𢷿𔑤𧵙𮩊</t>
+          <t>𩷬𦁏𐆜赞쪮𪇀</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>𝣌濟</t>
+          <t>Ꜭ寯空</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>𡬄숂𗾴𭊋𗘻钕𐢙𠙇투</t>
+          <t>𥅴𪶠𘟪𠈊ꁪ본禖腢｢𤬶</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -900,39 +900,39 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>1095041787423777792</t>
+          <t>4766371852951229440</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>𧃯𮢉昤貣</t>
+          <t>𘝃꯵𤗵㑥</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>ꖸ𠱽㔸ﯞ𧟓䴠ᘒଭ</t>
+          <t>𫮵𧩑𡫟덈𠈏랤</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>捙呠硹</t>
+          <t>㌭𤟒</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>흕海𪶈𫑚𬫵釈霩𥖻𨰞</t>
+          <t>𪌹𖬲ᙡ𪤡㠨𭍋湦𥛎𗪴</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -942,39 +942,39 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>4155360780057543680</t>
+          <t>5648426981559158784</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>䝣樲䩓喐폠鞸</t>
+          <t>쑖𘋮𐀬㋫</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>𨚮撉𨬻촧𧪧쑢鹞</t>
+          <t>琄𗵄㮴𨩆𪘡𒃘</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>稶ב俪</t>
+          <t>𮀘䀳</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>𭌪𣩨ᨾꎈ썩䶪،𢍓뇉𐛑䁁</t>
+          <t>𦩂鴬𐢙荟𔒜縹릝𭩅𭰆욤</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -984,123 +984,123 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>7049506972296113152</t>
+          <t>640667941873374208</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>𣷅𬔮𦼩</t>
+          <t>𣄦쀪𝥄级</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>愃𧮈丹𦥎𨄟𥬨</t>
+          <t>𩹰𡚌䋝𝌳𘌼Ḍ</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>𡽉촗</t>
+          <t>㡲𤃎</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>𬎗𦍚㽲Ƣ𬬮攽䜐𦘬𤩡몸</t>
+          <t>𨓿𥐕ಌ𠛏𒄉𝕗𡖅𠦱</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>2439756851658157056</t>
+          <t>7415323375936461824</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>𨻊⽢퍯𣈂</t>
+          <t>⭲돋昲ಆ𡥎</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>𐊯㡺𗦰𦻌𨼿ꄚ</t>
+          <t>𫩒惌𪙶𩊢𤅠貚</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>య𢭻</t>
+          <t>躸𢐋</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>ഐ𦳷𣭥𦮇曀𤲁뜎𭶹茍똦</t>
+          <t>𩉂𗌰𢉞𪪗𥉝𨽹𡿁䋹</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>692545754935569408</t>
+          <t>487075291460905984</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>𝄵䚡霭肦씆</t>
+          <t>큨𑇕벬⡽ȑ</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>𦹬村𤘊𑇴𖤵✑</t>
+          <t>𡙈𣠐𩉤𪂊𥰿</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>𭨅ឣ</t>
+          <t>ሥ샱ᜯ</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>놝蝃𔗥뇃㗼𤕳𧾗낫䢠𘗫脑</t>
+          <t>𝑠찉𦶦︉𩧛𞺢𪷕𪦥㾳</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1110,39 +1110,39 @@
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>5909563617518316544</t>
+          <t>543840934081523712</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>⨌礁頤瘽䍱뎹</t>
+          <t>𢇋±𬏔ᕏ</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>榽猢㏘𭵖ョ䣽𦫄Ⱓ</t>
+          <t>䜶𫽑ᯎ螸𘰏䂐𠊂</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>ẉ涫㏫</t>
+          <t>𫟏蚛</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>겜𭘵⑂𮦰𗌍𭡍𪬖鈩ꐞ偸</t>
+          <t>𒉯㐨∘𰷗𡇜𩗬𪅳찒𪅘</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1152,81 +1152,81 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>7398340232637712384</t>
+          <t>7540830874071189504</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>𮢿𢷱𠋆</t>
+          <t>祄犄d𫠁磕</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>䘼𧈦짲𬴞𗄜𗗚</t>
+          <t>𡸠𧛸苏踞뉖𠋳ꑄ</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>↕𡟋</t>
+          <t>𭐘癣</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>往ො넠噯ﰑ龇懷𢂂𡷄ਸ਼ﺧ率䚷</t>
+          <t>敞ꖰ샌𦸆쪧䚉𢭻𦚠𢓆𘓞</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>950848136411532288</t>
+          <t>872715219277832192</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>ἒ𬧋衫𦗓</t>
+          <t>𦬶𥠫𠥉</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>༜輔䠧叒𨂩냥𩈤ꒃ</t>
+          <t>𥻗𧝶𡨐𗠗𧺔</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>𮁛凣</t>
+          <t>硫䧜㕌</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>𭊀榷⬅𥳘𬅲ៈᢨ𣥊𡟎瘐</t>
+          <t>𥣗𔘅ᠭ䗿逋𬅠逸礀𘄞裗䷈</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1236,81 +1236,81 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>1388871037974681600</t>
+          <t>5894700969436211200</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>𣤳㝠𮝰旔</t>
+          <t>𣧃𦬟桬ꯙ</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>𝒳𡟁𧳙봳鳳𨑈</t>
+          <t>萍𦅶闲𩑑𥘺𝀶</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>흘垲丘</t>
+          <t>𣎷䗜</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>𩏷𠦃ꋂ䖗𡞝觚˼𠕩𦷚ᓫ</t>
+          <t>𩙤虫𐊊☔흀𠗡𘯙𫓀𔖘</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>7378605541938856960</t>
+          <t>220795315150113792</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>쵺𨲕𭠪ꅷ</t>
+          <t>𣢦棒뿪🛈</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>𬅩㠡亃㸪혻󠁖𩶑</t>
+          <t>𩕨Ә𦜫숕⓷𰒦쁑</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>礻阋霍</t>
+          <t>។𭓊</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>𩾥𫪡𡰶控𩼛酷強ꎬ𨦎蒞</t>
+          <t>⻪乾𐧸陀띨𪩽診𑀖𐳪𠨎</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -1320,39 +1320,39 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>775054950156744704</t>
+          <t>4676394942046877696</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>𭆣𓅨𩇰</t>
+          <t>𦹽🬴晕댼</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>𧺹𩵑𫅬f𪍵뗔</t>
+          <t>𩭄𧱪𩫀𠹼𧖫</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>貍𠉮</t>
+          <t>𨮥䤴</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>𢔪𗪜軥𩦬끪𝉅㸒뚍𧴇腡</t>
+          <t>𠁘ﯸ𡐢𧜩𪹈ᧃᎁ𑵻鱢あ</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -1362,81 +1362,81 @@
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>1676580606550917120</t>
+          <t>851874807522956288</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>𫕛𦓅𒐇</t>
+          <t>𫈝䲱9⾾쌈</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>웏𡧞暭𧿡竻䛴𩲬</t>
+          <t>𨓇𒑌⡷𢯅🛃ퟎ</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>㺩𗵳</t>
+          <t>𦵓徿</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>빲𬣲ே𭝧𮋁👣𬆗뮴𪰌</t>
+          <t>𪃄𭩡𭁳𖬥𤎌𝁓𢵒ʔ</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>6440427654900204544</t>
+          <t>2495139701015007232</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>𣉞𗁆𥦁</t>
+          <t>𮃜𐘼ᪧঅ</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>隅뷘涿厶𡿴ࣾ굽𭘖</t>
+          <t>𬝥㣒蝷𪃭ﵜ𮣋ᯕ</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>𬷊㰜</t>
+          <t>🁒늴</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>貆ꐐ⤑𨓋娆𫞧𪚆𪉥ⰽ𩬏</t>
+          <t>𞀔𤄮𐎛𤔝挈𨹌𧉉𬬘</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -1446,165 +1446,165 @@
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>3233413334884584448</t>
+          <t>1607296036743161856</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>𫡶🤯恢⫴</t>
+          <t>𨓴𘬾㷲㕭</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>𩦃넼יּ𧏸𡹁𭴼</t>
+          <t>𦝚𛀨𘖡𧴆𬉠</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>𝆧傭</t>
+          <t>𘦣縒</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>𣖡鬞𫺬𭒥𭡲𨬃𐳈ᒇ鎋</t>
+          <t>𧯝빍𖾐𬄸𠷼䛀𩚒𛄜४</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>2141201713781075968</t>
+          <t>2355538320294145024</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>味䡍ë𮓤ᨵ</t>
+          <t>骬𐊣垉𩓚</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>ᎄ𦑤꠹팶髫𢨬𘧬</t>
+          <t>𫣓鳓ꉘ𡿊般쿱𰇅</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>兛𘩧</t>
+          <t>饱湰觴</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>ਧ𡝝𛰞鞔𨾈𩱱똾𧩼킖ᒷ</t>
+          <t>谙𐪜𐼢𞲥쯳䐵쾆𒂀𩥭甝</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>4122283674243166208</t>
+          <t>4641225129626757120</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>𫧚󠅗𡬝</t>
+          <t>𡜙𗑤𪯷</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>𤹁𤺝𨔙𠩂𗺖</t>
+          <t>𫎫벮𪩒𭺯𠉥⛔</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>𗙶ꪬ</t>
+          <t>𢑖곞</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>⛆𣂳𥇍燗𨹘𠎱惠🕣ῦ쪔</t>
+          <t>ꍯ𗺔𘌂𢲤뮅ጫ𥾈𫭂᩷Ṟ</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>2260548569519072256</t>
+          <t>7604435857518396416</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>𥕛쫔𣱏鍊</t>
+          <t>ᢐ䀆𬻇𬇟</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>띕䳦🀨𮘥𥵋𭌽</t>
+          <t>Ꮲ𦐔⟐챷𱋨𦷂ⱋ</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>𤕅럲</t>
+          <t>𦗱즓</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>𖠳𮞧燶콃𝩌ኀ箺𡬘𫠛</t>
+          <t>𖼌𬹇籦댭𩑰𠸰쪈𠮔𬧳</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -1614,81 +1614,81 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>4013641055643683840</t>
+          <t>3869538024771804160</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>𖢎𩕬𡩥</t>
+          <t>𗢣奞ⓣ𩝮</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>𒆎𑆱𪒱𢪩𪭧</t>
+          <t>𬐂𫿏졧𱋸㹪𨘤</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>𧝃ക</t>
+          <t>ꮆ𣥗</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>𢹬逆𔐗ᮝᨃ𫗩ᢗ𤦭䍳𭶚</t>
+          <t>會埵骗𰷱𓁈𡮇ۿ𱂗ዴ👋</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>7803797564960248832</t>
+          <t>7635960672768393216</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>쐋𪭩𣫅沫</t>
+          <t>𧕦銁臶ꉃ핃</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>𤝼👿👃𦁀㲗୴</t>
+          <t>䀚𓏚𥥿ᴢ︂𪁧豈</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>󠁃怬</t>
+          <t>┼𓃳</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>𒌫𢅫𥭃𐐚𡾃𢥣𫎸픬</t>
+          <t>𠄍𪱉瑾⬽𠒴䱲𩾳ꭐ𔕓頊</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -1698,81 +1698,81 @@
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>5143320729666701312</t>
+          <t>7171606766486669312</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>덜𢗭𢱅פ</t>
+          <t>𢠇𠞃𤌈</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>զ띒𧛼ಀ掎秙𬏔흱</t>
+          <t>𛂹溺𗫨刐𢶧侙悇</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>🃂᳝</t>
+          <t>𬬀잰</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>冏𩾭𫖑衬鿔𤣿쾱𢶆𤪤곗</t>
+          <t>𨓖𣄜갽𑢺𓈺喂𠊨𭽓崃</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>7536478094969241600</t>
+          <t>8111827823326833664</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>좯𗙝褹𗫫</t>
+          <t>𦌗𢅚ﲔ嗾</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>𪄸𝌜琙𡂾薦𤈈</t>
+          <t>𐩰𪫈燎뛎𨵥曰Ⴅ</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>㵪烛⺧</t>
+          <t>𪒳箏</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>鏔𦃖㟷𑨒𩍙𥅢𦹕𝁛ᚡ</t>
+          <t>Ԝ⒠냧𩵓⣣𰭡𗲛ቍ𠪕衧᩠</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
@@ -1782,39 +1782,39 @@
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>4377200319955388416</t>
+          <t>7125905240927410176</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>𩚌쨊𣣘₀</t>
+          <t>𗋾𭾥䶻⒋</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>𥷙輴𪆀𐒗藤𫲉</t>
+          <t>𒉮𢺥𥖴🪑𰖘</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>𧊽峷</t>
+          <t>𡧳ꓷ</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>輰𫁊坈疼𗍌𝐐𥱤𖤙봅㯪</t>
+          <t>裇𠹼𰌔察𮌝𫂲𩿉ꇬ溻걡</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
@@ -1824,81 +1824,81 @@
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>2008384621116265472</t>
+          <t>7920835958878350336</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>ꬾ𤱷샵𣼩</t>
+          <t>𭊄㏲疱𠈝</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>𩍚𦡺蒅𪲭𬎫ឮ</t>
+          <t>𐡛𒅷𝌙𢢸𬆟</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>𗝊㶊</t>
+          <t>𫚙⣗</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>𐩶䛓𐝢𓉥𔐿𫢒ȗ緍𡷼</t>
+          <t>䶿𭁉𠫻𡌁뾨ሾ𪽶𬳪黩듕</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>8661185049875875840</t>
+          <t>353884154820713472</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>僛점𠢝懅艨</t>
+          <t>𭥮𩮍𖤠</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>🟂蹭툴𤰬뚁𣩓焉</t>
+          <t>𧅋䅘𫨩𦫵𮩳⡡</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>𘦺ꗍ</t>
+          <t>𩥽Ⓘ</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>裰蟹𧰄𑅴起簶𣃭⚯𮭓䐦</t>
+          <t>𠦙𠡴焌䇶⏦𩞒ࣧ⇆땃𥵸➜</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
@@ -1908,81 +1908,81 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>6966559874552090624</t>
+          <t>725924779585506304</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>㺈𮦩⠮𨩰</t>
+          <t>𡙲뫂𝨥匴</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>鄓쇓𬧆䀌𭊹𥫔孖</t>
+          <t>펶𡄓魁畎瓷죘𒐣⡲</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>𐧛뎓</t>
+          <t>𣯎ꊍ</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>☿컯쵩𮃧𗩖𠋓𠒰𭅦𦯨</t>
+          <t>𱇝𓄅𠊔𧻬𫥤먮🏿羚ﮐ</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>8929849887573139456</t>
+          <t>1111627236552423424</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>𧬧𢰥𗶐</t>
+          <t>薈芾𰙹𮏞</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>얙𭖮ᢡ𗟕𦺲𨴮</t>
+          <t>̢횱𩫪𗷎옽𓋉ꉝ</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>蔎𝆀</t>
+          <t>揘𒁢</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>𥔸𐡈𘖑𥚵𒒵𥸧𢟵饫</t>
+          <t>𞥙ᔜ𧲺𧵅𝀮𧾥髺鼅뭌玎</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
@@ -1992,39 +1992,39 @@
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>5093778350685126656</t>
+          <t>8216374480718244864</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>𨲰彝𨓶㶵</t>
+          <t>𮥯鷩宸Ꜷꛍ</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>𣒉郊𣀄𩑕𪝓䶜</t>
+          <t>䅖𞋥㼃㎸𨛶拁𫌑</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>𥿽敺</t>
+          <t>翶𭕿</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>𬭄𬬲𬝫󠀾༲𬱕𮌭倇皉</t>
+          <t>𤽷骠𩉊𗣱𬭦廍駓𧼥𭲢</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
@@ -2034,81 +2034,81 @@
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>7939923560685002752</t>
+          <t>2497810436852073472</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>꾽𖭕𡀕⫧</t>
+          <t>𘓠𪢙枎ףּ</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>믾𔓿𠯣𤠥𥴆婾</t>
+          <t>𝦒𨱞𭺮櫋𰝩쓉</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>𢾸呠</t>
+          <t>𠲍勿</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>𣅀ꉱ𮚹𮨦સ𑚒𮇓𑄘弈</t>
+          <t>莮𭟃𧣓⍁🠙𦅠𡇭𗶎抇</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>8981381667433553920</t>
+          <t>8324392803855511552</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>䋪紿꧁𭄝䡭</t>
+          <t>𗽚㍻𘰓価</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>𫌎𮞀𖡒𧀈𘂁</t>
+          <t>⋐巉𐐗𨷊贜╫𧌧</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>缡𩲃</t>
+          <t>醆荁螨</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>🎼𧎻𭋹𑐼♖䙲𘊏𘩞倪</t>
+          <t>𧑵𡗗𥳄₹𫮹쳌𓂺韹갢鍯</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
@@ -2118,81 +2118,81 @@
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>7911171631696483328</t>
+          <t>4947553542496266240</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>鈵𦋘乒跥㪚</t>
+          <t>𭂒𨙑ꂖ⋁</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>쐦𣶻웰𧖍🕻𮙓</t>
+          <t>𨄛𐣬ٽ뀔𪳠𓎘</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>⁒𨰊</t>
+          <t>賶𢇛</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>䔒𡸱𡹒𨅫𨲕䴖𫬅帨Ω</t>
+          <t>ꍑ𦶃𬥑𬕝𮑺𭬰𮦘ꟽ慸</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>2380378964067546112</t>
+          <t>6153771086847242240</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>㳑𗖘嬮𑜐</t>
+          <t>𔖿𝜼琉ನ</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>𤭳栝𨟬𖥇︡𗷚</t>
+          <t>𡪎喠𦹙𮔡𠦥癥</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>붮⢯甿</t>
+          <t>⿍𦢋</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>𩹥𒆥ۣ𡀲혖𝁘𩼾𒍩ꮴ</t>
+          <t>𪲝ᣫ𝟊⪠힊㬌𰦪盃𬞓𦫵</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
@@ -2202,39 +2202,39 @@
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>6604321237124980736</t>
+          <t>4102678084448194560</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>噷𩫐ෛ𮟈</t>
+          <t>𤼧ﾉ𭅭Ꞓ</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>𧓁ꉍ𖮌𣌢𢋥馨</t>
+          <t>𡄪𬨚𪅅𨧝𦂗</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>𗋫赆</t>
+          <t>𤚏䜨</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>𢞏𤳲𘘛ﷴ朋뺇Ꮫ𭍅𭱖ଇ</t>
+          <t>Ӫ𩺗塕𛇮🎽𗑥𠐲𨅙ᱜ</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
@@ -2244,249 +2244,249 @@
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>1260659165450614784</t>
+          <t>3896046726872190976</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>앎𮒎䦗ᚁ珻</t>
+          <t>傑𫃦𩼺ᣴ</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>溥轫𭥚姈𔖇㉊𡻯</t>
+          <t>㳄쯰쒓𭱨𣓐𥕉N</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>𫹊䚙</t>
+          <t>𘘒⒃</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>㌿㫻𬫖𐆌𭭬🖤𦛸퇾𩱴</t>
+          <t>𧬙⊶𤁭𰅦ퟱ𠁖𤼚ᐳ韹ᚊ</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>2682566472483716096</t>
+          <t>7804590477174328320</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>𐀢𪆼橓ڎ</t>
+          <t>嚀㯹𩱥𡕕</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>𨶑𦥷𗦭𨫦ԇͺ</t>
+          <t>蛛䇂𫎗𢾞𬒑𰂔</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>꿛𗚍</t>
+          <t>䒧𔗳</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>𛰹𦸫𦡅𫅩𖨒󠀦잶𝆶</t>
+          <t>𭰳🍰𭦱𐒤ﭺ𭾐Ꜧꩰ𨫊</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>436698805943142400</t>
+          <t>3524406273353895936</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>𘗬ﲫ𗆍윷</t>
+          <t>絘𭥋埝𥸚</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>𣰽Λ𨾖㾨𪹲𮋇</t>
+          <t>⡗𫽾𨲇𬼢𰴺蓗</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>𨲱ﻗ</t>
+          <t>𞤁ᑢ</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>籭𧯌縹𤷋𣽻𠫩耗𢘦𗫥</t>
+          <t>𓂨𧃊ᦌ趣𔑺𩈗鹐🝮𑲕</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>1839862596462146560</t>
+          <t>6100774528420439040</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>ᜯ𝪬楮𮏺</t>
+          <t>瞩𢇨𭎟㊍</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>𢊮𣣴𒂎쥼𪺑꺧</t>
+          <t>悶ꖶ𱁞𗖟𪙫㗕ὒ</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>𥆙甄</t>
+          <t>䢋𠙖</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>𗝋𤮤儖𣩽걽釣共𩵄𭉹变</t>
+          <t>𡎹𪂉𘖋𣽡놀𡂤𩩤鎹錛</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>205530815214043136</t>
+          <t>1088270323607496704</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>𪚽￻㒇𤱝</t>
+          <t>𮐊𧥬轟ꄪ</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>𗤝𧓣𫝍𡥡𢣙</t>
+          <t>컼ꫲዔ𪄯𨬒𡠱璊</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>📋选</t>
+          <t>祩퀐찶</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>轔𨫓餥ဇ𐭧𥑖⻲ᕦ铈𣧟㢓</t>
+          <t>鮪𮝱𨩼𨅧ᩔ⣰𦐋瑉𪶰썩</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>209714523608531968</t>
+          <t>1624153035742369792</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>𔕸𮆀𫎤</t>
+          <t>🏛亠𪉺洍</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>𣤊谤邽𗌵堌𣵸粍</t>
+          <t>᮫훎𥍳駱ᐖ𭾖𡕗</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>𦚥렠</t>
+          <t>𫠤Ꭹ</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>ⷼ𒈭陏𡩏𝖍Ć𝩾䬩ጬ𭇮</t>
+          <t>똨T𡝶𦿶𗄣禿𱋩쥒𥘌㽎</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr">
@@ -2496,39 +2496,39 @@
       </c>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>7168711407516935168</t>
+          <t>1167976396243305472</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>扲딞𪑆𦷪</t>
+          <t>𠳾𣧉𨮙</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>쏴𓈯泶顛㘘𤂍𦂁</t>
+          <t>𗪳𰟎𦣳𭚽𰭴</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>🌭봽</t>
+          <t>𫮜ថ</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>𥈽𢶍𡼔ꕄ𣱯蜋皺𓄵㛀띹</t>
+          <t>𭁢𧛣죿𦝫𰵂˄ᅆ𗼄䆑ㆤ</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr">
@@ -2538,165 +2538,165 @@
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>7142635754011590656</t>
+          <t>6619171206280940544</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>𑄽𒔉𩒸</t>
+          <t>⮛긋퀕𗢵섽</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>㬸𫋽𤠲𤩀茥𣹂</t>
+          <t>ඳ派𓈍🖘𦾈蹼〜</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>𧣬鮧</t>
+          <t>彶련ͫ</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>𞡪𗸷𠔂𝝠㻵𧆗센嚢ﵘꀒ</t>
+          <t>ᔕ⾳阋𫳺𭢞𣠜⤯訠𩐤𘑓</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>8582158725431084032</t>
+          <t>3866344784466593792</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>嬨𧘬𣍗苼</t>
+          <t>뢭𱄙딸鏢䵼</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>𪽮𬃡콈劽𮭿𡣢</t>
+          <t>𦁅𬿩ᆿ𬕴ຐ팹萭</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>𩮿蛛</t>
+          <t>𧿯㋶</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>䆄𢱋𢽡긑实櫌䕊𤠭𣒖┄돐</t>
+          <t>𨮥圢𭏮⒫𠎲𛃡𬎵ᗏ󠁎</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>2933823480240932864</t>
+          <t>3690394075714349056</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>㓀齒𤙋𒔬</t>
+          <t>𓁇ᖷ𪶹ࣦ</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>珚𤜔܂𐊄蹘𩳟쥰</t>
+          <t>𝧦䘨𤽌擇茯ധ🜤</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>𘤟뼣</t>
+          <t>𪵶죀</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>𐁘𡔲𠨧𦬊𗋰纆ꕇ𣐿㇁</t>
+          <t>碩䳸𥅆𗚭涅𥂳㸸弆砜𰽥Ừ</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>4031384748815165440</t>
+          <t>6341909443035799552</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>䤣츬䷚諝𨳌</t>
+          <t>硡🈒𣇒퀕</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>腄𫛥؇罀𥎰𩦭ﲇ</t>
+          <t>𭱎👳植𠝱ꓺ𘞶</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>缆𡬴</t>
+          <t>쾛吗崼</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>१𦧣𭁆 𬇵륏𝪨࡙𤻥숺</t>
+          <t>𐜫𞀃𤷗㰳𧗑躏𔘢쁚𢓬</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr">
@@ -2706,39 +2706,39 @@
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>3118929563350482944</t>
+          <t>8192661482039261184</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>往𛰏醨ﮐӗ</t>
+          <t>𡃁䫗𠸠懾</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>歇𮝑𩗙䏲𮒍𐚽</t>
+          <t>𰑔𐴕ɦ𤼰㡾𧴔</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>횃𩠉</t>
+          <t>𠴸啑</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>𒁻帖➔ဥ𩐆𦧰墯𣞻塪Մ郷</t>
+          <t>𘕡𭓉𧱢腻嶨鬁𑤻𘎕벁⚎</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr">
@@ -2748,417 +2748,417 @@
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>4232946514521075712</t>
+          <t>3194846969346755584</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>쎯𗩃𔒗괹</t>
+          <t>詺▙῾𬈝㆜</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>𫝬𥹗𢿨𑋄𪃆</t>
+          <t>𠐄𬧆𗻌𠕃𪆰</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>𥪆⽟</t>
+          <t>𘨱螚</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>䛭󠁠𝚔傣㰋䅼洞ꢙ𮎼摪楲㩂</t>
+          <t>邛᭧𬛒𰿷𪢌᰻뢆𦵽ﵤ减弥</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>3458578612458103808</t>
+          <t>2495300679025351680</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>밠𗅇唀묖⫹</t>
+          <t>롰헵𢣍𞴷</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>𥵱𣖼⟥謈𣫶侹豽</t>
+          <t>𥆥𫘁귏𮗨𪩟ᩕ</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>ꌦྈ启</t>
+          <t>ƫ鴢ђ</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>𑄄㯮𡢖𝙖𦯋𡵩󠀠𮨟</t>
+          <t>諫𡋡擃𬵶ﰮ𑇔땅ꇿ裷濇𮉆</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>8233561007737688064</t>
+          <t>6707081264975770624</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>⑱樏뼆䙰𗔠</t>
+          <t>㜾托炝苛𬃛</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>ꩼ𝠷헻𮥇𒉶𫽚</t>
+          <t>酦紮𫃹𰾁𪮶𮋯</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>𠊤钢</t>
+          <t>⻩ӌ퇌</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>𝟢癣𬛢Պ𒅘𦁾綘𝚩𨼃</t>
+          <t>ⶲ屹𣄆𫘚𩛰𫠶𢕼𭭈迣</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>1228175230336449536</t>
+          <t>7418955481588147200</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>⢀𗚴𓀳پ</t>
+          <t>𩻨𱋢犛咧</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>좆𗗻𩂥≠🚔𪧪</t>
+          <t>ᾘ𥞪묫ᢋꂆ𡘉𩥏</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>𭴿碌</t>
+          <t>𬍏捓</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>𭑧髼厒䞤𐫦𨂉攗𠞔믔𑓑</t>
+          <t>𨝁䙦꜌󠄕🟁𝥥𫾓𥫐捨</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>1777839370818493440</t>
+          <t>5318587894973956096</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>螉￬顧㨄覬甸</t>
+          <t>췻𦫊㾥騆옊</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>𝄍填𞢾鳊𡽊𮚄</t>
+          <t>𭣩𗐟𣦞오ㅺ甎湣</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>𢣫磟</t>
+          <t>ജ𠒖</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>𫹾𘨋靁ᰚ𩥝華𭉅𥺋뼥掺</t>
+          <t>𓉗᷃𢻜𐭃셢𤶑𥘖𡧂ᾁ</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>5005999251481382912</t>
+          <t>4845945119769524224</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>昴𤡜𨓙ᗂ</t>
+          <t>𭩎𣩁呡팞</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>𗙫弹䟵𣤾𗬵ỷ腡</t>
+          <t>𡝍荮ɷ𠔨𨾊𐍴</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>𩙑젆</t>
+          <t>䐋胛</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>𢕜𞢙𝒯𧎾龰𮛡𒌾𡾟</t>
+          <t>𰞔𠉖𦽢쀫𥾚𠞊𤝦𐺨</t>
         </is>
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>7423110290564370432</t>
+          <t>3823033852904588288</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>閴𝒽𐝓ဳ</t>
+          <t>𞄝쇵𠴧喤</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>𫣤𠷔强𬚔𑓗塌</t>
+          <t>𡱅𓊓⢣ౣ㙦뿐꾺ᇸ</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>賡ᮑ䞇</t>
+          <t>⢐ྑ鈢</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>𭦜𥗿📘𡡸ꗒ檗숰峻荟姖渥</t>
+          <t>𭷥𗚂宂ᘠ𞣇𑠭햕볕痳𡱀</t>
         </is>
       </c>
       <c r="F70" s="2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>7697448467629993984</t>
+          <t>2284398868583600128</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>𥙆𬁋〵鋧</t>
+          <t>𦷚𩒢👰</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>𣬼𠞰耑櫂ﳦ𫉐ೀ</t>
+          <t>𤜙殟⚵𐛮蜽𗺩</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>𦱌벂</t>
+          <t>𪫨ꀒ</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>槂䒪𢉑𣁱ฯ𢜩㤒𘆌焹𢅥</t>
+          <t>𰧝𭵵얔𧝎巉𡛌𧹕𥡓㉮</t>
         </is>
       </c>
       <c r="F71" s="2" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>6919556041673278464</t>
+          <t>8011037593081731072</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>ᅵ𤀜푶𠯨</t>
+          <t>叠힒𠚞🄌</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>𘆢⬝焦𐳏𮕣𭇰</t>
+          <t>𥏵ꓳ𫢤𫡐𰳝ᨓ</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>锔ꬫᾏ</t>
+          <t>𗳬躷</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t>洊𐆁ⴙ𨯌𛂻𫪫뚡𠽻𧧊</t>
+          <t>𱌢🔈𫶥𦿸ꨋ𪊙𫨗𬫕</t>
         </is>
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>9043846126347534336</t>
+          <t>1184361131856092160</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>ꕌ𬐗𐚶百</t>
+          <t>𣗿𥾅𢃉</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>𠮒눥𐛙梥𦮬𭍥</t>
+          <t>鴬횹祥矴𬙵楈𩼄ᡰ</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>𠜾녂</t>
+          <t>𐩇ﳴ</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr">
         <is>
-          <t>❔䍴𬗠𥡁𑂚儡₽칢𗞆🙬</t>
+          <t>𥵤뵓Ⅸ毺𥙓𐡞𢎁樞ᢐ𘋍</t>
         </is>
       </c>
       <c r="F73" s="2" t="inlineStr">
@@ -3168,39 +3168,39 @@
       </c>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>784652653871485952</t>
+          <t>8754784322523398144</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>𥣻𭯆𡞤</t>
+          <t>𧕎𡑺𣊴</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>𭝍𨄜𠯿㶷𡝭⽫</t>
+          <t>𰟴𥔗𤼘缫川𧖆</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>⑅𭍊</t>
+          <t>𣺗酁</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
-          <t>𥴀𪧖𮐐🄒𥇗𫖉𛱲瞵</t>
+          <t>ᕶᜏƯ𦥩𨻒Ꙩ𦄸䅟𡛹𡦢</t>
         </is>
       </c>
       <c r="F74" s="2" t="inlineStr">
@@ -3210,123 +3210,123 @@
       </c>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>1177467374987675648</t>
+          <t>4838518464704495616</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>瓱ợ𠒒붍枤</t>
+          <t>𪐲𭤒𩴻</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>𬶖𝕶𩨷𘥞𣝰</t>
+          <t>𒀕룗𤪨뉏𡤕蟮晛</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>𗛙峷</t>
+          <t>𥷫耱</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>鈷܏縼绊𦇎ﱃ쮰㕟𥲀䘏𠈯侀</t>
+          <t>榶뉝𰐛🗎ὺᗯﶹ⍆𪱴쫴𓌮</t>
         </is>
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>3879351204776511488</t>
+          <t>9105616808066643968</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>𪍉𣹟㜶녷</t>
+          <t>겁輡𡓙𡜷</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>辶Ḱᣚ𫋺簁𭫣㳻⭥</t>
+          <t>𛈛㔉閿륬𣷼ᴫ𰡟</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>𐧭撛</t>
+          <t>𥻲텊</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
-          <t>覭쁞췢㷎訿𪇀𣟔𘑤半凨𤢂</t>
+          <t>𥍾𣾬𥍽볜蕱쟍𮅑𨄙𫧪</t>
         </is>
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>6220896129342119936</t>
+          <t>6506248814622156800</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>㕗𝦔드ꅊ媿</t>
+          <t>蝼ῂᛡ𨋹쩴</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>𗆞잱𠙤𘩟𒉧궸</t>
+          <t>𨿩䊄躭𥑛𡦆𱋴</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>𪙬難</t>
+          <t>𬍂䴚</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
-          <t>𧷌杪𘙮𨍠𫙱𢷬𠱵𠙅</t>
+          <t>𨎖𭨐鞹Ǘ𐤒𪰜𤁬敄𗽤</t>
         </is>
       </c>
       <c r="F77" s="2" t="inlineStr">
@@ -3336,39 +3336,39 @@
       </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>7374148493595490304</t>
+          <t>3982156821414794240</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>𡛼⠵몧揟杌</t>
+          <t>뫳𐨯㛑𬥀</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>悩𧕂𨖣㺝鬵𦊰戙</t>
+          <t>𫥸𤗼뺜ㇲ𣚗𩆆</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>칕𭾐</t>
+          <t>𣨋凪</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>𡝳粇𮋟뱫𥌘엞𪪣𗺐㍢鼫</t>
+          <t>难𝨹𠵄𪿡𦻌𫧸ᴹ𗫔昀</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr">
@@ -3378,81 +3378,81 @@
       </c>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>5294396542100399104</t>
+          <t>9099984819556274176</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>𥈴𖣛𩐼</t>
+          <t>푱녖𫩠虲☊</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>䗍𦯯呜𣾷鱚𣄜䦦</t>
+          <t>𩔿𝐔𧎜𥅵𭭝</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>㙧붝箯</t>
+          <t>꤬ⶕꬠ</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>𫸭𫾀𥤧𡹺𠨿𬣵岶縂茒</t>
+          <t>𭦚𮤡뇄𥬞剽殜㺈𮁲𝥽憲</t>
         </is>
       </c>
       <c r="F79" s="2" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>793875691703231488</t>
+          <t>7700564301186989056</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>둥𒇘𘣛彿</t>
+          <t>𠏲斤虗磅焏</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>𬔍尷𪩏ວ𥤡𥊒</t>
+          <t>𗄘𫦃𢹿㲚𨨺㈃</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>󠁊뻿</t>
+          <t>𣶬귄</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>軙𢖷爵𒉠˺셱𩕧ᖒ𑆜솂</t>
+          <t>龜间𮧂𥢿𭼩𩫜𪍘𪻺碮</t>
         </is>
       </c>
       <c r="F80" s="2" t="inlineStr">
@@ -3462,39 +3462,39 @@
       </c>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>6025723004791357440</t>
+          <t>1117018110968534016</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>𥆨𣦏䎟셁</t>
+          <t>𮛾𩯹𢰅</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>𦘘頓暅𝄶𮕥䋙䱭</t>
+          <t>ꆑឮ𤛛짴𧭁𨃻ḹ</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>𭜘貧</t>
+          <t>囼𢿀</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>𓇴䍾𑊰䃓ᵏ⊢蓧𡺵𘜩瑎ꕆ</t>
+          <t>캜𧡊귡𐰑㏶𱌋𗳷𥮴𦐥</t>
         </is>
       </c>
       <c r="F81" s="2" t="inlineStr">
@@ -3504,39 +3504,39 @@
       </c>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>1971059649409256448</t>
+          <t>8648114739604329472</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>滛障𦵮𪦍</t>
+          <t>鬾𗷝𤋄⬆</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>𨾾𥖉𩸩묵𥧱㇄</t>
+          <t>炫焝櫂ㆀꍤ𠶒䊠𑚘</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>𢔛䔢</t>
+          <t>𨯦訦</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>𣁄𥉠絫𮤁復矇𣳔逗𦹔誅</t>
+          <t>𨾫㯗𣞒䢇唢𠤧𤿍ྟ𘦶ྱ</t>
         </is>
       </c>
       <c r="F82" s="2" t="inlineStr">
@@ -3546,39 +3546,39 @@
       </c>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>8021370844534462464</t>
+          <t>6784564798297372672</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>𗣧䊓𤨰녑</t>
+          <t>뿂𧅟ø⊟룁</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>뜦𥋷⬺𡼬𥶇𤍝</t>
+          <t>땽𬑘洌𠂡䘟㞹𩪦</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>ﵩ묍툑</t>
+          <t>첣𥻻</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>𤚠浛𮙝賭𮧾𥗝𭰍𭧡敡</t>
+          <t>𗶣𡖡𝧳仚𑁞𗁔䑤𡫍燡</t>
         </is>
       </c>
       <c r="F83" s="2" t="inlineStr">
@@ -3588,249 +3588,249 @@
       </c>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>7401040399673259008</t>
+          <t>1935422867512439808</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>𤴄𥕩𬃑</t>
+          <t>㣶𩟿Ý㢲ᩓ</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>𧰂ꧮ𬓗쐅𧮉𠎨</t>
+          <t>𤝠𬅗𠌕𘐽躦㦤</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>𮮘ꂛ</t>
+          <t>𘖻閎</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>𑁪賔😨𧄓ఖ𫪦𛇆𤇉躴</t>
+          <t>𢕏𢋢𪜰䆚鞟겷𦔰𓉎𢽑</t>
         </is>
       </c>
       <c r="F84" s="2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>7417013304619192320</t>
+          <t>3720505526178944000</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>ꠛ𣯮找𣽴</t>
+          <t>𨆆ስꂳ覅㈳</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>𩲆𤠉𨞹拉倿𗕧</t>
+          <t>𭹨𰝈𰰩ἷ𢍚国</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>㇒𥹟</t>
+          <t>𭲮ꖚ</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr">
         <is>
-          <t>𨅐𩬄⒌𘘚𩃦ꛩ焞ꖶ𝀄揁</t>
+          <t>𣚶𓇟쉍𐍭𫍷䫇𤅼靻뿝ᦪ</t>
         </is>
       </c>
       <c r="F85" s="2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>6891720381306397696</t>
+          <t>7933861037361611776</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>𑊔𘡵쐀䑍</t>
+          <t>𪈦𘝓𨭑</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>𨺷𤶇𫡻𩊈쉴♼</t>
+          <t>🇭𣭣𨱬㣃ᏹ𭿛</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>𤖼칎</t>
+          <t>𪱦욷</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
-          <t>𡯞뚜艌󠅡샸ꛪ𘝬𝨭᭕𡮭</t>
+          <t>𐲊題𰨵㱃𘀛᪰勢炫𭢟𖨬</t>
         </is>
       </c>
       <c r="F86" s="2" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>7363498241525073920</t>
+          <t>6614639305477796864</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>𪁻ፊ𡛱ꐣ</t>
+          <t>幂𰣩耳亦鱆</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>𑂈𢾒𐰋𤬌馜⡛</t>
+          <t>ᄹ𢝱𣟦識𩟾𥚡</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>傚𝀇</t>
+          <t>롟󠅀</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>嶇ﴉ𫪊颸𗽮𨐦斿𭯣𢄳泈</t>
+          <t>𧀯া𣖪𪝾𣾂𢦴𪅜𔑹</t>
         </is>
       </c>
       <c r="F87" s="2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>8597867872382159872</t>
+          <t>5359435896282978304</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>昁㮛ꠤ스𭱴</t>
+          <t>𘗼𛂯ᆚ팎</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>轺𨫞ⱱ𤦭ꙻ𗴮蛞</t>
+          <t>𣦑𠑂ꯁ𩪑듔𮤸</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>𑆛䓵</t>
+          <t>𥾽ڡ</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
-          <t>𦚓𣱾局𨹔𢉆𑰬🛪梬쓂</t>
+          <t>늅𨔲𦵄惥𡓪𥴦𖼝𦑻ꏖ</t>
         </is>
       </c>
       <c r="F88" s="2" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>3372640016925812736</t>
+          <t>132166010247222272</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>땵栍𬾤𮤉</t>
+          <t>ꖐ璴𢬺𩨕</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>塣吪𨪝䔉㏜𗾷𧆘</t>
+          <t>흜∋𑨘𝁵𣊑룷趛</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>𭙪ﲬ</t>
+          <t>苻ṥ릎</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
-          <t>𘝨𣱗𑱠п🙩𗐽ꙡ𞣋ꜞ</t>
+          <t>𨤭𡞒苯ൽ𗟟𬗧紋鞴𧂄빹</t>
         </is>
       </c>
       <c r="F89" s="2" t="inlineStr">
@@ -3840,165 +3840,165 @@
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>6439830225083244544</t>
+          <t>8618866432974729216</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>巪𧰯䭩𤜲</t>
+          <t>𡳎펻𢼆ﰊ</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>🔀𥿰𐌍𨢘𮙆</t>
+          <t>𬅳䤒𥈴𰐇శ㘏ອ</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>𝔟䢮</t>
+          <t>𨜅ꊷ</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
-          <t>𭒸𭘔𨷅𢊃𗑫裵𠽼𢣟</t>
+          <t>𦏠𣣆蒙𩅴ੑ𠧰𐇕𠗝넺</t>
         </is>
       </c>
       <c r="F90" s="2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>8859849800552383488</t>
+          <t>2257096473852628992</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>𫊐湬뷹𮊕</t>
+          <t>寡𗬩㣾崽츁</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>⯅𫣽𢦢咸𢾿𣈴</t>
+          <t>誦ୖ🌛𭖂𥚌🂆</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>吣恫콎</t>
+          <t>舼𫓏</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr">
         <is>
-          <t>麟𘌕𣉹𬮫𠱡ꡃ𡫝𬌶ꨴ</t>
+          <t>𰏃嫶𦠤𧋞෫𒂝뭢𘅜𗊲</t>
         </is>
       </c>
       <c r="F91" s="2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>9101635305874018304</t>
+          <t>1109912070290673664</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>ᬪ觇𢃼刽糍</t>
+          <t>ᮭ𒓺𒇿뼇</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>𮊪𥁲𡕊𨤞Ꮆ蜽</t>
+          <t>𠉌𭻪笆𨊵⢒ꉎ櫚</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>䶍𣱰</t>
+          <t>۸𱂎</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t>𖦁᳭𥛩𢰂쳎阱骢䢩₃𧟨﨣</t>
+          <t>𗯒𡟡𠩓𡵺됹𠖞컈𘄩豰</t>
         </is>
       </c>
       <c r="F92" s="2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>1599939775115432960</t>
+          <t>8467579350193835008</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>됮𔔤𝔲蓠</t>
+          <t>𠎚炍𭾓寡</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>𘄿𪡾𭭮绯ꋜ🤧</t>
+          <t>豕𰵭𦶊𫖓䃥ⷯ</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>谛㢭缪</t>
+          <t>𗓮㱮</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
-          <t>睱𠣠𧳪𦆝𦖀𮩳𗰗ꕺ䩐</t>
+          <t>𬧑𭒺𨔨ӫ𤁊𖦬𧎷ⴖ⼖</t>
         </is>
       </c>
       <c r="F93" s="2" t="inlineStr">
@@ -4008,207 +4008,208 @@
       </c>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>3326611469111727104</t>
+          <t>3245021355816049664</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>𧒏𖤤𩫦</t>
+          <t>늓𦴏𮯑䆬</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>䳧𗯗𗒺⃛艙𪏟魊</t>
+          <t>ᄢ𥿗🆬𢇲𗩦頼</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>𞹑꽘</t>
+          <t>𗧀ꗆ</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
-          <t>ꄺ댢𗉂䘭𦌚㟀쎜䅆𦠖ᯤ죗ӽ</t>
+          <t xml:space="preserve">쳬𥏳𰇐𤅑け𡀘ప쩚𣊺 +</t>
         </is>
       </c>
       <c r="F94" s="2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>2409453798837279744</t>
+          <t>5519791406583215104</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>𓈺𪯚𪜷</t>
+          <t>𡲤𣶷㼒ছ</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>𨜖𧮓𑀻𛆪𩰯</t>
+          <t>᪳𐕅𪐃𨵒⢨𣙹</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>𩹁阝</t>
+          <t>𗽔嚧</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
-          <t>尲𘓿𤭳☼𪭲ꮔ犬𛈪𗢅晆</t>
+          <t>ꎽ끧ଁ𢘊⹃𰓛𥀢𫚛띚箉鏡</t>
         </is>
       </c>
       <c r="F95" s="2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>7335269369212454912</t>
+          <t>3828135089860357120</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>𪫭𬥣敞၎</t>
+          <t>𣟡𤽦𡤌</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>𪐍𗡠෩𝝞𫠬멈</t>
+          <t>𦷗𐑟䭸虏瀦𤔈鎁</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>薣𘩰</t>
+          <t>𱊿萊</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr">
         <is>
-          <t>𫟘쳣𪟇蓤𫔭𮒟𫗹𮨅䫋</t>
+          <t>𦉫愊𭯉𩁞佋𪋁ꠟ𬂀焹館</t>
         </is>
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>2250193561606501376</t>
+          <t>3399236124548097024</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>歖䐱텊𣒓ꅯ</t>
+          <t>𩮪㯞𰣜媰</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>𧕭ᮁ𨞝𫅸𤱨◟</t>
+          <t>𠤃𪼯𠉧𗜣쭿軾</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>𠾀Ꮾ</t>
+          <t>𤊝ʞ</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr">
         <is>
-          <t>⫘𩆣𬽖力𨉭𠀒𦨺瞰䓱ꉞ</t>
+          <t>䯄𐮅𭤧𗌫퇨𝙻🗥𖦜㡝</t>
         </is>
       </c>
       <c r="F97" s="2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>3749101279717761024</t>
+          <t>8790719641351674880</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>𐌕𧱵媔覕</t>
+          <t>ፆ䧫𦸻𣻼</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>𩐟🄣ⵖ𬃁𢏱囧</t>
+          <t>⌇𨮋𧩊ˋ𧉉𩕹</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>쩥뒡뀂</t>
+          <t>𢟢ﺊ</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
-          <t>워𡟸鬄䃎冈𪙼𨛔𘘆껭폾坋</t>
+          <t>𤪀𰉲𝡱瘣ꜙɆ𐁍𨃏𤍰</t>
         </is>
       </c>
       <c r="F98" s="2" t="inlineStr">
@@ -4218,39 +4219,39 @@
       </c>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H98" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>7518027591834440704</t>
+          <t>1502683985215809536</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>𪧏𥯏𫜊</t>
+          <t>も㭆裣𰧶䜎</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>𦞌𪀾滲푈𬐵𪃰</t>
+          <t>죧𩣪夆𪨕藙𣍴蛅</t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>𨒯룝</t>
+          <t>ሣ𩰋</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr">
         <is>
-          <t>𥩒𘥙䫙鵋錘𭌚𥆊𒓲쭿휁</t>
+          <t>𗺱𡝡ࡩ㺨𢝾𥦴ꕭ쒒뼭⪁⛋</t>
         </is>
       </c>
       <c r="F99" s="2" t="inlineStr">
@@ -4260,96 +4261,96 @@
       </c>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>4856713281459457024</t>
+          <t>2590675773022781440</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>㶊󠅹𤑩앏</t>
+          <t>閸˗鼩𑐹犤</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>𭰘𪂗䖟𧡊ࣣ𮠔</t>
+          <t>呮𢁙𪰟𬴙𰟀Ჹ</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>⛱曳鴑</t>
+          <t>𠿼ꐙ</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr">
         <is>
-          <t>턪懊稤䧇𘃽𐐘𞤊𗤜뉸𣞥</t>
+          <t>𮮠𫵼𦖂퀱揄瘡𨵣楎𪬌⽼</t>
         </is>
       </c>
       <c r="F100" s="2" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>6779434913414204416</t>
+          <t>6329826262652690432</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>ﺓ𡛴ⰽ咦胒</t>
+          <t>𘤷𭱉𡔙</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>𤓓𣐋𬓸𣱆滖Ṃ</t>
+          <t>𝍱𥫀𩁓浥𬅷蛥</t>
         </is>
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>醄ဒ쌣</t>
+          <t>믁𗐦</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr">
         <is>
-          <t>갋𡃠𫴡𢏠𫝬𐤰𭥯𨴘</t>
+          <t>ꡕ𤓘ﲮ𓎮𫅥𬺙냺𮬤𐘮</t>
         </is>
       </c>
       <c r="F101" s="2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>2024-03-20 16:29:31</t>
+          <t>2024-12-05 21:53:18</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr">
         <is>
-          <t>2024-03-30 16:29:31</t>
+          <t>2024-12-15 21:53:18</t>
         </is>
       </c>
     </row>
